--- a/tests/multialgorithm/fixtures/validation/cases/semantic/00021/00021-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/cases/semantic/00021/00021-wc_lang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="23700" windowHeight="7500" tabRatio="989" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="-23980" yWindow="2680" windowWidth="23700" windowHeight="7500" tabRatio="989" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -895,14 +895,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="11" bestFit="1" customWidth="1"/>
@@ -1055,8 +1055,8 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1294,7 @@
   <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
